--- a/biology/Botanique/Suaeda_ifniensis/Suaeda_ifniensis.xlsx
+++ b/biology/Botanique/Suaeda_ifniensis/Suaeda_ifniensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Suaeda ifniensis est une espèce d'arbustes de la famille des Amaranthaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Sous-arbrisseau ne dépassant pas 40 cm de haut[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sous-arbrisseau ne dépassant pas 40 cm de haut.
 Feuilles sessiles, cylindriques charnues.</t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Suaeda ifniensis est originaire du Sud-Ouest du Maroc (le nom attribué à l'espèce dérive d'Ifni, actuellement dans la province de Souss-Massa-Drâa.
-L'espèce est aussi présente sans les Îles Canaries (Lanzarote, Fuerteventura et Tenerife)[4].
+L'espèce est aussi présente sans les Îles Canaries (Lanzarote, Fuerteventura et Tenerife).
 Elle est confinée aux zones côtières soumises aux embruns marins.
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Quelques vues de la plante</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Suaeda ifniensis dans un champ de lave à Lanzarote
